--- a/BDDDataDrivenFramework/ExcelSheets/TestData.xlsx
+++ b/BDDDataDrivenFramework/ExcelSheets/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>TestID</t>
   </si>
@@ -42,31 +42,10 @@
     <t>hsdhsdhs</t>
   </si>
   <si>
-    <t>7702949973</t>
-  </si>
-  <si>
-    <t>9866123517</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>8099286216</t>
-  </si>
-  <si>
-    <t>9703764988</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>prasad.goguri</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>prasad.varun</t>
+    <t>hjhjhj</t>
+  </si>
+  <si>
+    <t>jhjhjhj</t>
   </si>
 </sst>
 </file>
@@ -446,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +464,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -496,59 +475,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="prasad.goguri@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId2" display="prasad.goguri@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4" display="prasad.goguri@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
